--- a/REVER_DailyTracker_20200723.xlsx
+++ b/REVER_DailyTracker_20200723.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F72F0F-21DA-4346-A4D8-91D804968ECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="18">
   <si>
     <t>No</t>
   </si>
@@ -70,19 +76,24 @@
   <si>
     <t>Regression testing on B2C and B2B app</t>
   </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>Input Man Dll checking</t>
+  </si>
+  <si>
+    <t>Active Report issue</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,165 +117,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,7 +139,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,188 +161,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -531,262 +211,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -803,7 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -812,7 +250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -824,16 +262,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="39" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -845,63 +280,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="標準 2" xfId="39"/>
-    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1159,27 +554,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="104.714285714286" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1203,14 +598,14 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" s="24" customFormat="1" ht="28.9" customHeight="1" spans="1:7">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
+    <row r="2" spans="1:7" s="23" customFormat="1" ht="28.9" customHeight="1">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4"/>
@@ -1221,23 +616,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1268,29 +663,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="72.5714285714286" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="72.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1358,21 +751,21 @@
       </c>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="20" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="20" spans="2:3">
       <c r="C20" s="9" t="s">
         <v>5</v>
       </c>
@@ -1403,29 +796,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1469,23 +860,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1516,29 +907,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1564,45 +953,57 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:7">
+    <row r="2" spans="1:7">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="29">
+        <v>44035</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" ht="15.75" spans="1:7">
+    <row r="3" spans="1:7">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="29">
+        <v>44035</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E3" s="6"/>
       <c r="F3" s="7"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1633,29 +1034,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1699,23 +1098,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1746,29 +1145,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1812,23 +1209,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1859,29 +1256,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1916,21 +1311,21 @@
       <c r="F2" s="22"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" s="1" customFormat="1"/>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="19" spans="3:3">
+    <row r="3" spans="1:7" s="1" customFormat="1"/>
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="19" spans="2:3">
       <c r="C19" s="9" t="s">
         <v>5</v>
       </c>
@@ -1961,29 +1356,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2027,23 +1420,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -2074,29 +1467,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2140,23 +1531,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -2187,29 +1578,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2253,23 +1642,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -2300,29 +1689,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2366,23 +1753,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -2413,7 +1800,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/REVER_DailyTracker_20200723.xlsx
+++ b/REVER_DailyTracker_20200723.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F72F0F-21DA-4346-A4D8-91D804968ECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CA9F82-5C36-416C-B7F9-8854D5307467}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="20">
   <si>
     <t>No</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>Active Report issue</t>
+  </si>
+  <si>
+    <t>QMVAR-RPA S</t>
+  </si>
+  <si>
+    <t>Service Part Return</t>
   </si>
 </sst>
 </file>
@@ -566,15 +572,15 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -598,7 +604,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" s="23" customFormat="1" ht="28.9" customHeight="1">
+    <row r="2" spans="1:7" s="23" customFormat="1" ht="28.95" customHeight="1">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="24"/>
@@ -675,15 +681,15 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="72.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="72.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -808,15 +814,15 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -915,19 +921,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1046,15 +1052,15 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1153,19 +1159,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1194,9 +1200,15 @@
     <row r="2" spans="1:7">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
       <c r="F2" s="7"/>
       <c r="G2" s="4"/>
     </row>
@@ -1268,15 +1280,15 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1368,15 +1380,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1479,15 +1491,15 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1590,15 +1602,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1701,15 +1713,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
